--- a/r5-LinkedCare-main/StructureDefinition-linca-full-proposal-list.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-full-proposal-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:50:22+00:00</t>
+    <t>2023-11-29T14:36:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
